--- a/nbs/files/lut/dbo_biogroup.xlsx
+++ b/nbs/files/lut/dbo_biogroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moria\OneDrive - IAEA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CEFA21-E447-4FB4-9E26-95C9539DF1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B35BDEB-9F68-5849-B801-49254BD36F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21555" yWindow="45" windowWidth="6765" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbo_biogroup" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>biogroup_id</t>
   </si>
@@ -85,13 +85,37 @@
   </si>
   <si>
     <t>Bivalves</t>
+  </si>
+  <si>
+    <t>helcom_id</t>
+  </si>
+  <si>
+    <t>helcom_grp</t>
+  </si>
+  <si>
+    <t>FISH</t>
+  </si>
+  <si>
+    <t>PLANT</t>
+  </si>
+  <si>
+    <t>BENTHIC ANIMAL</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,26 +484,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -487,7 +520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -495,31 +528,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -527,15 +578,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -543,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -551,15 +608,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -567,15 +630,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -583,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -591,7 +660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -605,18 +674,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,13 +821,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B23956F3-18E7-4AFD-ADCE-F3B49C2803C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BC7497-056F-4771-800C-81EB0B6B6871}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BC7497-056F-4771-800C-81EB0B6B6871}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B23956F3-18E7-4AFD-ADCE-F3B49C2803C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1440613E-EE35-442E-92C2-BEA114BE45FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1440613E-EE35-442E-92C2-BEA114BE45FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nbs/files/lut/dbo_biogroup.xlsx
+++ b/nbs/files/lut/dbo_biogroup.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B35BDEB-9F68-5849-B801-49254BD36F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8904D2-695F-934F-B548-4C9A76D84976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbo_biogroup" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="dbo_biogroup">dbo_biogroup!$A$1:$B$13</definedName>
+    <definedName name="dbo_biogroup">dbo_biogroup!$A$1:$B$14</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>biogroup_id</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -514,40 +517,34 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -558,113 +555,127 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -674,21 +685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c5da731661f4bf76604184727f2d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf665a11c7ceb3b31f5a9dbdfc3fcda" ns2:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -820,24 +816,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BC7497-056F-4771-800C-81EB0B6B6871}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B23956F3-18E7-4AFD-ADCE-F3B49C2803C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1440613E-EE35-442E-92C2-BEA114BE45FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -853,4 +847,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B23956F3-18E7-4AFD-ADCE-F3B49C2803C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BC7497-056F-4771-800C-81EB0B6B6871}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>